--- a/education/education-provider/src/main/webapp/templates/采购品.xlsx
+++ b/education/education-provider/src/main/webapp/templates/采购品.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16410" windowHeight="7245"/>
+    <workbookView windowWidth="16410" windowHeight="7245" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="采购品" sheetId="1" r:id="rId1"/>
@@ -253,6 +253,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">导入说明：
 </t>
     </r>
@@ -310,7 +317,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,13 +341,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -353,6 +353,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -360,8 +361,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -369,6 +377,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -382,6 +420,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -390,46 +436,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,14 +458,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -466,32 +482,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,187 +512,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,17 +706,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,17 +741,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,6 +765,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -775,31 +789,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,10 +811,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,137 +823,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -963,22 +963,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1336,8 +1342,8 @@
   <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1347,71 +1353,71 @@
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="7" customWidth="1"/>
     <col min="9" max="9" width="13.875" customWidth="1"/>
     <col min="10" max="10" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36.75" customHeight="1" spans="1:10">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="J2" t="s">
@@ -1419,31 +1425,31 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="J3" t="s">
@@ -1451,31 +1457,31 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="J4" t="s">
@@ -1495,8 +1501,8 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1589,10 +1595,10 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>41</v>
       </c>
     </row>

--- a/education/education-provider/src/main/webapp/templates/采购品.xlsx
+++ b/education/education-provider/src/main/webapp/templates/采购品.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16410" windowHeight="7245" activeTab="1"/>
+    <workbookView windowWidth="9495" windowHeight="3210"/>
   </bookViews>
   <sheets>
     <sheet name="采购品" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
     <t>产地</t>
   </si>
   <si>
-    <t>白菜</t>
+    <t>菜</t>
   </si>
   <si>
     <t>斤</t>
@@ -219,7 +219,7 @@
     <t>上海</t>
   </si>
   <si>
-    <t>黄瓜</t>
+    <t>瓜</t>
   </si>
   <si>
     <t>龙神餐饮</t>
@@ -234,7 +234,7 @@
     <t>14566</t>
   </si>
   <si>
-    <t>猪肉</t>
+    <t>肉</t>
   </si>
   <si>
     <t>畜产品及其制品</t>
@@ -283,7 +283,25 @@
     <t>规格：填写采购品相关规格，例如：斤、个、箱。  必填项</t>
   </si>
   <si>
-    <t>采购品分类：对采购品的分类，分类有：畜产品及其制品、禽及其产品制品、蔬菜、油脂及其制品、水产及其制品、冷冻饮品、水果、粮食和粮食制造品、豆类及其制品、食用菌和藻类、坚果和籽类、可可和巧克力制品及糖果、烘烤食品、甜味饮料、调味品、特殊膳食食品、饮料类、酒类、添加剂类、其他类。   必填项</t>
+    <r>
+      <t>采购品分类：对采购品的分类，分类有：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>畜产品及其制品、禽及其产品制品、蔬菜、油脂及其制品、水产及其制品、冷冻饮品、水果、粮食和粮食制造品、豆类及其制品、食用菌和藻类、坚果和籽类、可可和巧克力制品及糖果、烘烤食品、甜味饮料、调味品、特殊膳食食品、饮料类、酒类、添加剂类、其他类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。   必填项</t>
+    </r>
   </si>
   <si>
     <t>年、月、日、时</t>
@@ -312,12 +330,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +364,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -353,16 +378,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,37 +401,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,15 +462,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,48 +478,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,6 +527,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -512,187 +544,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,6 +735,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -717,11 +773,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,62 +830,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,10 +843,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,137 +855,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -969,6 +1001,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -978,7 +1013,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -991,9 +1026,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,8 +1374,8 @@
   <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1353,71 +1385,71 @@
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="8" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="8" customWidth="1"/>
     <col min="9" max="9" width="13.875" customWidth="1"/>
     <col min="10" max="10" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36.75" customHeight="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J2" t="s">
@@ -1425,31 +1457,31 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J3" t="s">
@@ -1457,31 +1489,31 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J4" t="s">
@@ -1501,8 +1533,8 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1540,11 +1572,11 @@
       <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
@@ -1595,10 +1627,10 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>41</v>
       </c>
     </row>

--- a/education/education-provider/src/main/webapp/templates/采购品.xlsx
+++ b/education/education-provider/src/main/webapp/templates/采购品.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9495" windowHeight="3210"/>
+    <workbookView windowWidth="24135" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="采购品" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
     <t>产地</t>
   </si>
   <si>
-    <t>菜</t>
+    <t>菜菜</t>
   </si>
   <si>
     <t>斤</t>
@@ -219,7 +219,7 @@
     <t>上海</t>
   </si>
   <si>
-    <t>瓜</t>
+    <t>瓜瓜</t>
   </si>
   <si>
     <t>龙神餐饮</t>
@@ -234,7 +234,7 @@
     <t>14566</t>
   </si>
   <si>
-    <t>肉</t>
+    <t>肉肉</t>
   </si>
   <si>
     <t>畜产品及其制品</t>
@@ -289,7 +289,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>畜产品及其制品、禽及其产品制品、蔬菜、油脂及其制品、水产及其制品、冷冻饮品、水果、粮食和粮食制造品、豆类及其制品、食用菌和藻类、坚果和籽类、可可和巧克力制品及糖果、烘烤食品、甜味饮料、调味品、特殊膳食食品、饮料类、酒类、添加剂类、其他类</t>
@@ -297,7 +298,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。   必填项</t>
@@ -330,10 +332,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -359,16 +361,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -385,6 +386,127 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -393,130 +515,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,10 +530,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -544,187 +544,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,11 +738,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,6 +785,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -773,17 +812,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,39 +835,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -843,149 +843,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,11 +1001,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1374,8 +1377,8 @@
   <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1385,71 +1388,71 @@
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="8" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="9" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="9" customWidth="1"/>
     <col min="9" max="9" width="13.875" customWidth="1"/>
     <col min="10" max="10" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36.75" customHeight="1" spans="1:10">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J2" t="s">
@@ -1457,31 +1460,31 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J3" t="s">
@@ -1489,31 +1492,31 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J4" t="s">
@@ -1534,7 +1537,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1606,7 +1609,7 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1627,10 +1630,10 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>41</v>
       </c>
     </row>

--- a/education/education-provider/src/main/webapp/templates/采购品.xlsx
+++ b/education/education-provider/src/main/webapp/templates/采购品.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13200"/>
+    <workbookView windowWidth="23415" windowHeight="11070"/>
   </bookViews>
   <sheets>
     <sheet name="采购品" sheetId="1" r:id="rId1"/>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>采购品分类：对采购品的分类，分类有：</t>
     </r>
     <r>
@@ -332,12 +338,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +373,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -386,6 +399,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -393,9 +422,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,37 +460,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -454,7 +478,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,56 +492,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,25 +557,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,151 +737,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,36 +748,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -786,17 +769,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,16 +826,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,10 +856,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -855,137 +868,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,13 +1023,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1378,7 +1394,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1388,71 +1404,71 @@
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="9" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="10" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="10" customWidth="1"/>
     <col min="9" max="9" width="13.875" customWidth="1"/>
     <col min="10" max="10" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36.75" customHeight="1" spans="1:10">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J2" t="s">
@@ -1460,31 +1476,31 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J3" t="s">
@@ -1492,31 +1508,31 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J4" t="s">
@@ -1537,7 +1553,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1593,7 +1609,7 @@
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1609,7 +1625,7 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1630,10 +1646,10 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>41</v>
       </c>
     </row>
